--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-date</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Observation.category:Laboratory.id</t>
+    <t>Observation.category:SocialHistory</t>
+  </si>
+  <si>
+    <t>SocialHistory</t>
+  </si>
+  <si>
+    <t>Observation.category:SocialHistory.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.extension</t>
+    <t>Observation.category:SocialHistory.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding</t>
+    <t>Observation.category:SocialHistory.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.id</t>
+    <t>Observation.category:SocialHistory.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.extension</t>
+    <t>Observation.category:SocialHistory.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.system</t>
+    <t>Observation.category:SocialHistory.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.version</t>
+    <t>Observation.category:SocialHistory.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.code</t>
+    <t>Observation.category:SocialHistory.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>laboratory</t>
+    <t>social-history</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.display</t>
+    <t>Observation.category:SocialHistory.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.userSelected</t>
+    <t>Observation.category:SocialHistory.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.text</t>
+    <t>Observation.category:SocialHistory.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4471,7 +4471,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4831,7 +4831,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5073,7 +5073,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5923,7 +5923,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6283,7 +6283,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6525,7 +6525,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7375,7 +7375,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7735,7 +7735,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7977,7 +7977,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8827,7 +8827,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9187,7 +9187,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9429,7 +9429,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10279,7 +10279,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10639,7 +10639,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10881,7 +10881,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11731,7 +11731,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12091,7 +12091,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12333,7 +12333,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4051,7 +4051,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-date</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-date</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-visit-date</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-date</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-date</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-visit-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-visit-date</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-visit-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-date</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-date</t>
   </si>
   <si>
     <t>Abstract</t>
